--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/13_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1147358555423159</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.2890879681917233</v>
+      </c>
+      <c r="G2">
+        <v>0.1018727374063134</v>
+      </c>
+      <c r="H2">
+        <v>0.0383088535275531</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.0008610968417447979</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.003534384202512807</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.0944243173704616</v>
+      </c>
+      <c r="O2">
+        <v>0.02134090034166391</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.008855247589577453</v>
+      </c>
+      <c r="R2">
+        <v>0.006106960796784387</v>
+      </c>
+      <c r="S2">
+        <v>0.0273329356840144</v>
+      </c>
+      <c r="T2">
+        <v>0.08680273776800231</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.02248056649785088</v>
+      </c>
+      <c r="W2">
+        <v>0.005931210399178365</v>
+      </c>
+      <c r="X2">
+        <v>0.002174595296219005</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.01793895231481034</v>
+      </c>
+      <c r="AA2">
+        <v>0.04220534677204352</v>
+      </c>
+      <c r="AB2">
+        <v>0.01375734907317882</v>
+      </c>
+      <c r="AC2">
+        <v>0.08250061164105914</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.01870416198855907</v>
+      </c>
+      <c r="AF2">
+        <v>0.0010432107544334</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.1028497323114776</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.2899831394617873</v>
-      </c>
-      <c r="H2">
-        <v>0.04582032006652317</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.03856185757990877</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.09153567550250181</v>
-      </c>
-      <c r="P2">
-        <v>0.07084317855912853</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.006782412789385388</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0.0457373741663103</v>
-      </c>
-      <c r="U2">
-        <v>0.07853559718842361</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.07478077107848925</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.02882496318315035</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0.01992933491058367</v>
-      </c>
-      <c r="AB2">
-        <v>0.00249615552674859</v>
-      </c>
-      <c r="AC2">
-        <v>0.05072128840337383</v>
-      </c>
-      <c r="AD2">
-        <v>0.04518933423329349</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.007408865038914417</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.04352848570419507</v>
+      </c>
+      <c r="E3">
+        <v>0.02508859428295257</v>
+      </c>
+      <c r="F3">
+        <v>0.1913523864582797</v>
+      </c>
+      <c r="G3">
+        <v>0.1378140143951233</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.01019331021977434</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.0003069802161363099</v>
+      </c>
+      <c r="N3">
+        <v>0.08862627940807126</v>
+      </c>
+      <c r="O3">
+        <v>0.07856248492688202</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.003611490599200369</v>
+      </c>
+      <c r="R3">
+        <v>0.03087431696785303</v>
+      </c>
+      <c r="S3">
+        <v>0.008039902167008442</v>
+      </c>
+      <c r="T3">
+        <v>0.1199907024537226</v>
+      </c>
+      <c r="U3">
+        <v>0.02921645044027955</v>
+      </c>
+      <c r="V3">
+        <v>0.001984705992927009</v>
+      </c>
+      <c r="W3">
+        <v>0.01918366078753893</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.02421663711027839</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0498994128205804</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.1251542139606448</v>
+      </c>
+      <c r="AD3">
+        <v>0.001400527506141309</v>
+      </c>
+      <c r="AE3">
+        <v>0.007137817804845057</v>
+      </c>
+      <c r="AF3">
+        <v>0.003817625777565736</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.1914217205644837</v>
-      </c>
-      <c r="F3">
-        <v>0.002427902376293927</v>
-      </c>
-      <c r="G3">
-        <v>0.2626146764594594</v>
-      </c>
-      <c r="H3">
-        <v>0.006686300857798767</v>
-      </c>
-      <c r="I3">
-        <v>0.01611991161788537</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.0396776906362315</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.08793902309320614</v>
-      </c>
-      <c r="P3">
-        <v>0.04726384887278078</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.08534149894398117</v>
-      </c>
-      <c r="U3">
-        <v>0.07288602560876692</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.04665599760311111</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.02822640700530561</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0.02666515357280841</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0.05399061793869878</v>
-      </c>
-      <c r="AD3">
-        <v>0.01751375251508335</v>
-      </c>
-      <c r="AE3">
-        <v>0.00572213621942104</v>
-      </c>
-      <c r="AF3">
-        <v>0.008847336114683968</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2441759852352025</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.1807674180450609</v>
+      </c>
+      <c r="G4">
+        <v>0.008754065979231597</v>
+      </c>
+      <c r="H4">
+        <v>0.04999990753654882</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.007703420121798552</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.1023461616127296</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.006737709267620128</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.08555073862536576</v>
+      </c>
+      <c r="T4">
+        <v>0.114920511711419</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.002654357611016477</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.03836728265926288</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.01440645809306826</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.06434340891457595</v>
+      </c>
+      <c r="AC4">
+        <v>0.05754381551244878</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.01627342665570563</v>
+      </c>
+      <c r="AF4">
+        <v>0.001213964812909834</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0.004241367606035096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.06052307367567631</v>
-      </c>
-      <c r="E4">
-        <v>0.02721742557947697</v>
-      </c>
-      <c r="F4">
-        <v>0.1863023671917125</v>
-      </c>
-      <c r="G4">
-        <v>0.1700287106242822</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.005958094079677929</v>
-      </c>
-      <c r="L4">
-        <v>0.0163082086835164</v>
-      </c>
-      <c r="M4">
-        <v>0.05151907321183574</v>
-      </c>
-      <c r="N4">
-        <v>0.03545754336959069</v>
-      </c>
-      <c r="O4">
-        <v>0.09737837841635802</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.0005239010445985476</v>
-      </c>
-      <c r="S4">
-        <v>0.01767579042511975</v>
-      </c>
-      <c r="T4">
-        <v>0.1340021278412256</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0.04644509455487873</v>
-      </c>
-      <c r="W4">
-        <v>0.0003577089984403078</v>
-      </c>
-      <c r="X4">
-        <v>0.01161560098858396</v>
-      </c>
-      <c r="Y4">
-        <v>0.0003526104167015775</v>
-      </c>
-      <c r="Z4">
-        <v>0.01090419280003082</v>
-      </c>
-      <c r="AA4">
-        <v>0.03589239883360156</v>
-      </c>
-      <c r="AB4">
-        <v>0.003516560828665226</v>
-      </c>
-      <c r="AC4">
-        <v>0.0642149002023556</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.02380623823367147</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.01329749744676093</v>
+      </c>
+      <c r="E5">
+        <v>0.130079371551365</v>
+      </c>
+      <c r="F5">
+        <v>0.06148416133170242</v>
+      </c>
+      <c r="G5">
+        <v>0.2047805839223069</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.02971861845131646</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.008201957908758408</v>
+      </c>
+      <c r="N5">
+        <v>0.02248231239593775</v>
+      </c>
+      <c r="O5">
+        <v>0.07660446102693688</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.01515599587039991</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.113005842436522</v>
+      </c>
+      <c r="U5">
+        <v>0.08279746839475327</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.01936361095338338</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.03506896963447015</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.04961805950390479</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.09629358471586995</v>
+      </c>
+      <c r="AD5">
+        <v>0.02087279248265268</v>
+      </c>
+      <c r="AE5">
+        <v>0.0002860553687730255</v>
+      </c>
+      <c r="AF5">
+        <v>0.01844107266841511</v>
+      </c>
+      <c r="AG5">
+        <v>0.002447583935771192</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.1642968845482626</v>
-      </c>
-      <c r="E5">
-        <v>0.06820796405707408</v>
-      </c>
-      <c r="F5">
-        <v>0.1960103507283448</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.005394815069522233</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.006159752060624517</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.04028652606002871</v>
-      </c>
-      <c r="M5">
-        <v>0.003114720649911007</v>
-      </c>
-      <c r="N5">
-        <v>0.1177454085306885</v>
-      </c>
-      <c r="O5">
-        <v>0.0193599637896454</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.1259141533086707</v>
-      </c>
-      <c r="T5">
-        <v>0.04595593440275315</v>
-      </c>
-      <c r="U5">
-        <v>0.01038960027782345</v>
-      </c>
-      <c r="V5">
-        <v>0.01401165134345765</v>
-      </c>
-      <c r="W5">
-        <v>0.01258446123855696</v>
-      </c>
-      <c r="X5">
-        <v>0.04358873339655527</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0.02498274067953734</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.09337447795779091</v>
-      </c>
-      <c r="AC5">
-        <v>0.003693238397124065</v>
-      </c>
-      <c r="AD5">
-        <v>0.004928623503628911</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,40 +1096,40 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2757231733162987</v>
+        <v>0.03414007582098132</v>
       </c>
       <c r="E6">
-        <v>0.001237893609258558</v>
+        <v>0.04802253363539571</v>
       </c>
       <c r="F6">
-        <v>0.232910564523255</v>
+        <v>0.123181005862536</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1340102865453209</v>
       </c>
       <c r="H6">
-        <v>0.02771767489035396</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.008089797191441031</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06150120095885228</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01019670064352175</v>
       </c>
       <c r="L6">
-        <v>0.02706370588341871</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.002762372088407552</v>
       </c>
       <c r="N6">
-        <v>0.07236847850973403</v>
+        <v>0.008156218684617019</v>
       </c>
       <c r="O6">
-        <v>0.0343221233065886</v>
+        <v>0.1741950225625322</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1156,46 +1138,46 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04355091380687617</v>
       </c>
       <c r="S6">
-        <v>0.1186129734643643</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.07406043999841275</v>
+        <v>0.2029415946035329</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.01192797028623909</v>
       </c>
       <c r="V6">
-        <v>0.01291234641792868</v>
+        <v>0.01761676745281411</v>
       </c>
       <c r="W6">
-        <v>0.00574549757206565</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.02837988836703474</v>
+        <v>0.01164048424690507</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.004325361471880089</v>
       </c>
       <c r="Z6">
-        <v>0.004847882891491517</v>
+        <v>0.000950476741329841</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.005938523625821875</v>
       </c>
       <c r="AB6">
-        <v>0.06048024758204718</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01302700932536793</v>
+        <v>0.09685269377099512</v>
       </c>
       <c r="AD6">
-        <v>0.003404643314252138</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.007185457028127709</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1207,9 +1189,6 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,13 +1311,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1347,88 +1323,88 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1147358555423159</v>
       </c>
       <c r="E2">
-        <v>0.1028497323114776</v>
+        <v>0.1147358555423159</v>
       </c>
       <c r="F2">
-        <v>0.1028497323114776</v>
+        <v>0.4038238237340392</v>
       </c>
       <c r="G2">
-        <v>0.3928328717732649</v>
+        <v>0.5056965611403527</v>
       </c>
       <c r="H2">
-        <v>0.438653191839788</v>
+        <v>0.5440054146679058</v>
       </c>
       <c r="I2">
-        <v>0.438653191839788</v>
+        <v>0.5440054146679058</v>
       </c>
       <c r="J2">
-        <v>0.438653191839788</v>
+        <v>0.5448665115096506</v>
       </c>
       <c r="K2">
-        <v>0.438653191839788</v>
+        <v>0.5448665115096506</v>
       </c>
       <c r="L2">
-        <v>0.438653191839788</v>
+        <v>0.5484008957121634</v>
       </c>
       <c r="M2">
-        <v>0.4772150494196968</v>
+        <v>0.5484008957121634</v>
       </c>
       <c r="N2">
-        <v>0.4772150494196968</v>
+        <v>0.6428252130826251</v>
       </c>
       <c r="O2">
-        <v>0.5687507249221986</v>
+        <v>0.664166113424289</v>
       </c>
       <c r="P2">
-        <v>0.6395939034813272</v>
+        <v>0.664166113424289</v>
       </c>
       <c r="Q2">
-        <v>0.6395939034813272</v>
+        <v>0.6730213610138664</v>
       </c>
       <c r="R2">
-        <v>0.6463763162707126</v>
+        <v>0.6791283218106509</v>
       </c>
       <c r="S2">
-        <v>0.6463763162707126</v>
+        <v>0.7064612574946653</v>
       </c>
       <c r="T2">
-        <v>0.6921136904370229</v>
+        <v>0.7932639952626676</v>
       </c>
       <c r="U2">
-        <v>0.7706492876254465</v>
+        <v>0.7932639952626676</v>
       </c>
       <c r="V2">
-        <v>0.7706492876254465</v>
+        <v>0.8157445617605185</v>
       </c>
       <c r="W2">
-        <v>0.8454300587039357</v>
+        <v>0.8216757721596968</v>
       </c>
       <c r="X2">
-        <v>0.8454300587039357</v>
+        <v>0.8238503674559158</v>
       </c>
       <c r="Y2">
-        <v>0.874255021887086</v>
+        <v>0.8238503674559158</v>
       </c>
       <c r="Z2">
-        <v>0.874255021887086</v>
+        <v>0.8417893197707261</v>
       </c>
       <c r="AA2">
-        <v>0.8941843567976697</v>
+        <v>0.8839946665427697</v>
       </c>
       <c r="AB2">
-        <v>0.8966805123244184</v>
+        <v>0.8977520156159485</v>
       </c>
       <c r="AC2">
-        <v>0.9474018007277922</v>
+        <v>0.9802526272570077</v>
       </c>
       <c r="AD2">
-        <v>0.9925911349610858</v>
+        <v>0.9802526272570077</v>
       </c>
       <c r="AE2">
-        <v>0.9925911349610858</v>
+        <v>0.9989567892455667</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1442,13 +1418,10 @@
       <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1457,88 +1430,88 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.04352848570419507</v>
       </c>
       <c r="E3">
-        <v>0.1914217205644837</v>
+        <v>0.06861707998714764</v>
       </c>
       <c r="F3">
-        <v>0.1938496229407776</v>
+        <v>0.2599694664454273</v>
       </c>
       <c r="G3">
-        <v>0.456464299400237</v>
+        <v>0.3977834808405505</v>
       </c>
       <c r="H3">
-        <v>0.4631506002580358</v>
+        <v>0.3977834808405505</v>
       </c>
       <c r="I3">
-        <v>0.4792705118759212</v>
+        <v>0.4079767910603249</v>
       </c>
       <c r="J3">
-        <v>0.4792705118759212</v>
+        <v>0.4079767910603249</v>
       </c>
       <c r="K3">
-        <v>0.4792705118759212</v>
+        <v>0.4079767910603249</v>
       </c>
       <c r="L3">
-        <v>0.4792705118759212</v>
+        <v>0.4079767910603249</v>
       </c>
       <c r="M3">
-        <v>0.5189482025121527</v>
+        <v>0.4082837712764611</v>
       </c>
       <c r="N3">
-        <v>0.5189482025121527</v>
+        <v>0.4969100506845324</v>
       </c>
       <c r="O3">
-        <v>0.6068872256053588</v>
+        <v>0.5754725356114144</v>
       </c>
       <c r="P3">
-        <v>0.6541510744781396</v>
+        <v>0.5754725356114144</v>
       </c>
       <c r="Q3">
-        <v>0.6541510744781396</v>
+        <v>0.5790840262106148</v>
       </c>
       <c r="R3">
-        <v>0.6541510744781396</v>
+        <v>0.6099583431784679</v>
       </c>
       <c r="S3">
-        <v>0.6541510744781396</v>
+        <v>0.6179982453454763</v>
       </c>
       <c r="T3">
-        <v>0.7394925734221207</v>
+        <v>0.737988947799199</v>
       </c>
       <c r="U3">
-        <v>0.8123785990308876</v>
+        <v>0.7672053982394785</v>
       </c>
       <c r="V3">
-        <v>0.8123785990308876</v>
+        <v>0.7691901042324055</v>
       </c>
       <c r="W3">
-        <v>0.8590345966339987</v>
+        <v>0.7883737650199445</v>
       </c>
       <c r="X3">
-        <v>0.8590345966339987</v>
+        <v>0.7883737650199445</v>
       </c>
       <c r="Y3">
-        <v>0.8872610036393044</v>
+        <v>0.8125904021302229</v>
       </c>
       <c r="Z3">
-        <v>0.8872610036393044</v>
+        <v>0.8125904021302229</v>
       </c>
       <c r="AA3">
-        <v>0.9139261572121128</v>
+        <v>0.8624898149508033</v>
       </c>
       <c r="AB3">
-        <v>0.9139261572121128</v>
+        <v>0.8624898149508033</v>
       </c>
       <c r="AC3">
-        <v>0.9679167751508115</v>
+        <v>0.9876440289114481</v>
       </c>
       <c r="AD3">
-        <v>0.9854305276658949</v>
+        <v>0.9890445564175894</v>
       </c>
       <c r="AE3">
-        <v>0.991152663885316</v>
+        <v>0.9961823742224344</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1552,124 +1525,118 @@
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2441759852352025</v>
+      </c>
+      <c r="E4">
+        <v>0.2441759852352025</v>
+      </c>
+      <c r="F4">
+        <v>0.4249434032802634</v>
+      </c>
+      <c r="G4">
+        <v>0.433697469259495</v>
+      </c>
+      <c r="H4">
+        <v>0.4836973767960439</v>
+      </c>
+      <c r="I4">
+        <v>0.4836973767960439</v>
+      </c>
+      <c r="J4">
+        <v>0.4836973767960439</v>
+      </c>
+      <c r="K4">
+        <v>0.4836973767960439</v>
+      </c>
+      <c r="L4">
+        <v>0.4914007969178424</v>
+      </c>
+      <c r="M4">
+        <v>0.4914007969178424</v>
+      </c>
+      <c r="N4">
+        <v>0.5937469585305719</v>
+      </c>
+      <c r="O4">
+        <v>0.5937469585305719</v>
+      </c>
+      <c r="P4">
+        <v>0.5937469585305719</v>
+      </c>
+      <c r="Q4">
+        <v>0.600484667798192</v>
+      </c>
+      <c r="R4">
+        <v>0.600484667798192</v>
+      </c>
+      <c r="S4">
+        <v>0.6860354064235578</v>
+      </c>
+      <c r="T4">
+        <v>0.8009559181349767</v>
+      </c>
+      <c r="U4">
+        <v>0.8009559181349767</v>
+      </c>
+      <c r="V4">
+        <v>0.8036102757459932</v>
+      </c>
+      <c r="W4">
+        <v>0.8036102757459932</v>
+      </c>
+      <c r="X4">
+        <v>0.8419775584052561</v>
+      </c>
+      <c r="Y4">
+        <v>0.8419775584052561</v>
+      </c>
+      <c r="Z4">
+        <v>0.8563840164983244</v>
+      </c>
+      <c r="AA4">
+        <v>0.8563840164983244</v>
+      </c>
+      <c r="AB4">
+        <v>0.9207274254129003</v>
+      </c>
+      <c r="AC4">
+        <v>0.9782712409253491</v>
+      </c>
+      <c r="AD4">
+        <v>0.9782712409253491</v>
+      </c>
+      <c r="AE4">
+        <v>0.9945446675810548</v>
+      </c>
+      <c r="AF4">
+        <v>0.9957586323939646</v>
+      </c>
+      <c r="AG4">
+        <v>0.9957586323939646</v>
+      </c>
+      <c r="AH4">
+        <v>0.9957586323939646</v>
+      </c>
+      <c r="AI4">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.06052307367567631</v>
-      </c>
-      <c r="E4">
-        <v>0.08774049925515327</v>
-      </c>
-      <c r="F4">
-        <v>0.2740428664468658</v>
-      </c>
-      <c r="G4">
-        <v>0.444071577071148</v>
-      </c>
-      <c r="H4">
-        <v>0.444071577071148</v>
-      </c>
-      <c r="I4">
-        <v>0.444071577071148</v>
-      </c>
-      <c r="J4">
-        <v>0.444071577071148</v>
-      </c>
-      <c r="K4">
-        <v>0.4500296711508259</v>
-      </c>
-      <c r="L4">
-        <v>0.4663378798343423</v>
-      </c>
-      <c r="M4">
-        <v>0.5178569530461781</v>
-      </c>
-      <c r="N4">
-        <v>0.5533144964157688</v>
-      </c>
-      <c r="O4">
-        <v>0.6506928748321268</v>
-      </c>
-      <c r="P4">
-        <v>0.6506928748321268</v>
-      </c>
-      <c r="Q4">
-        <v>0.6506928748321268</v>
-      </c>
-      <c r="R4">
-        <v>0.6512167758767253</v>
-      </c>
-      <c r="S4">
-        <v>0.6688925663018451</v>
-      </c>
-      <c r="T4">
-        <v>0.8028946941430707</v>
-      </c>
-      <c r="U4">
-        <v>0.8028946941430707</v>
-      </c>
-      <c r="V4">
-        <v>0.8493397886979495</v>
-      </c>
-      <c r="W4">
-        <v>0.8496974976963898</v>
-      </c>
-      <c r="X4">
-        <v>0.8613130986849737</v>
-      </c>
-      <c r="Y4">
-        <v>0.8616657091016753</v>
-      </c>
-      <c r="Z4">
-        <v>0.8725699019017061</v>
-      </c>
-      <c r="AA4">
-        <v>0.9084623007353076</v>
-      </c>
-      <c r="AB4">
-        <v>0.9119788615639729</v>
-      </c>
-      <c r="AC4">
-        <v>0.9761937617663285</v>
-      </c>
-      <c r="AD4">
-        <v>0.9761937617663285</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -1677,91 +1644,91 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1642968845482626</v>
+        <v>0.01329749744676093</v>
       </c>
       <c r="E5">
-        <v>0.2325048486053366</v>
+        <v>0.1433768689981259</v>
       </c>
       <c r="F5">
-        <v>0.4285151993336814</v>
+        <v>0.2048610303298283</v>
       </c>
       <c r="G5">
-        <v>0.4285151993336814</v>
+        <v>0.4096416142521352</v>
       </c>
       <c r="H5">
-        <v>0.4339100144032036</v>
+        <v>0.4096416142521352</v>
       </c>
       <c r="I5">
-        <v>0.4339100144032036</v>
+        <v>0.4393602327034517</v>
       </c>
       <c r="J5">
-        <v>0.4400697664638282</v>
+        <v>0.4393602327034517</v>
       </c>
       <c r="K5">
-        <v>0.4400697664638282</v>
+        <v>0.4393602327034517</v>
       </c>
       <c r="L5">
-        <v>0.4803562925238569</v>
+        <v>0.4393602327034517</v>
       </c>
       <c r="M5">
-        <v>0.4834710131737679</v>
+        <v>0.4475621906122101</v>
       </c>
       <c r="N5">
-        <v>0.6012164217044564</v>
+        <v>0.4700445030081478</v>
       </c>
       <c r="O5">
-        <v>0.6205763854941019</v>
+        <v>0.5466489640350847</v>
       </c>
       <c r="P5">
-        <v>0.6205763854941019</v>
+        <v>0.5466489640350847</v>
       </c>
       <c r="Q5">
-        <v>0.6205763854941019</v>
+        <v>0.5466489640350847</v>
       </c>
       <c r="R5">
-        <v>0.6205763854941019</v>
+        <v>0.5618049599054846</v>
       </c>
       <c r="S5">
-        <v>0.7464905388027725</v>
+        <v>0.5618049599054846</v>
       </c>
       <c r="T5">
-        <v>0.7924464732055256</v>
+        <v>0.6748108023420066</v>
       </c>
       <c r="U5">
-        <v>0.8028360734833491</v>
+        <v>0.75760827073676</v>
       </c>
       <c r="V5">
-        <v>0.8168477248268067</v>
+        <v>0.75760827073676</v>
       </c>
       <c r="W5">
-        <v>0.8294321860653636</v>
+        <v>0.7769718816901433</v>
       </c>
       <c r="X5">
-        <v>0.8730209194619188</v>
+        <v>0.7769718816901433</v>
       </c>
       <c r="Y5">
-        <v>0.8730209194619188</v>
+        <v>0.8120408513246135</v>
       </c>
       <c r="Z5">
-        <v>0.8980036601414562</v>
+        <v>0.8120408513246135</v>
       </c>
       <c r="AA5">
-        <v>0.8980036601414562</v>
+        <v>0.8616589108285182</v>
       </c>
       <c r="AB5">
-        <v>0.991378138099247</v>
+        <v>0.8616589108285182</v>
       </c>
       <c r="AC5">
-        <v>0.9950713764963711</v>
+        <v>0.9579524955443881</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9788252880270408</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9791113433958138</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.997552416064229</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -1772,100 +1739,97 @@
       <c r="AI5">
         <v>1</v>
       </c>
-      <c r="AJ5">
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.03414007582098132</v>
+      </c>
+      <c r="E6">
+        <v>0.08216260945637704</v>
+      </c>
+      <c r="F6">
+        <v>0.205343615318913</v>
+      </c>
+      <c r="G6">
+        <v>0.3393539018642339</v>
+      </c>
+      <c r="H6">
+        <v>0.3393539018642339</v>
+      </c>
+      <c r="I6">
+        <v>0.3474436990556749</v>
+      </c>
+      <c r="J6">
+        <v>0.4089449000145272</v>
+      </c>
+      <c r="K6">
+        <v>0.419141600658049</v>
+      </c>
+      <c r="L6">
+        <v>0.419141600658049</v>
+      </c>
+      <c r="M6">
+        <v>0.4219039727464565</v>
+      </c>
+      <c r="N6">
+        <v>0.4300601914310735</v>
+      </c>
+      <c r="O6">
+        <v>0.6042552139936058</v>
+      </c>
+      <c r="P6">
+        <v>0.6042552139936058</v>
+      </c>
+      <c r="Q6">
+        <v>0.6042552139936058</v>
+      </c>
+      <c r="R6">
+        <v>0.647806127800482</v>
+      </c>
+      <c r="S6">
+        <v>0.647806127800482</v>
+      </c>
+      <c r="T6">
+        <v>0.8507477224040149</v>
+      </c>
+      <c r="U6">
+        <v>0.8626756926902539</v>
+      </c>
+      <c r="V6">
+        <v>0.8802924601430681</v>
+      </c>
+      <c r="W6">
+        <v>0.8802924601430681</v>
+      </c>
+      <c r="X6">
+        <v>0.8919329443899732</v>
+      </c>
+      <c r="Y6">
+        <v>0.8962583058618533</v>
+      </c>
+      <c r="Z6">
+        <v>0.8972087826031832</v>
+      </c>
+      <c r="AA6">
+        <v>0.9031473062290051</v>
+      </c>
+      <c r="AB6">
+        <v>0.9031473062290051</v>
+      </c>
+      <c r="AC6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.2757231733162987</v>
-      </c>
-      <c r="E6">
-        <v>0.2769610669255573</v>
-      </c>
-      <c r="F6">
-        <v>0.5098716314488122</v>
-      </c>
-      <c r="G6">
-        <v>0.5098716314488122</v>
-      </c>
-      <c r="H6">
-        <v>0.5375893063391661</v>
-      </c>
-      <c r="I6">
-        <v>0.5375893063391661</v>
-      </c>
-      <c r="J6">
-        <v>0.5375893063391661</v>
-      </c>
-      <c r="K6">
-        <v>0.5375893063391661</v>
-      </c>
-      <c r="L6">
-        <v>0.5646530122225848</v>
-      </c>
-      <c r="M6">
-        <v>0.5646530122225848</v>
-      </c>
-      <c r="N6">
-        <v>0.6370214907323188</v>
-      </c>
-      <c r="O6">
-        <v>0.6713436140389074</v>
-      </c>
-      <c r="P6">
-        <v>0.6713436140389074</v>
-      </c>
-      <c r="Q6">
-        <v>0.6713436140389074</v>
-      </c>
-      <c r="R6">
-        <v>0.6713436140389074</v>
-      </c>
-      <c r="S6">
-        <v>0.7899565875032717</v>
-      </c>
-      <c r="T6">
-        <v>0.8640170275016844</v>
-      </c>
-      <c r="U6">
-        <v>0.8640170275016844</v>
-      </c>
-      <c r="V6">
-        <v>0.8769293739196131</v>
-      </c>
-      <c r="W6">
-        <v>0.8826748714916788</v>
-      </c>
-      <c r="X6">
-        <v>0.9110547598587135</v>
-      </c>
-      <c r="Y6">
-        <v>0.9110547598587135</v>
-      </c>
-      <c r="Z6">
-        <v>0.9159026427502051</v>
-      </c>
-      <c r="AA6">
-        <v>0.9159026427502051</v>
-      </c>
-      <c r="AB6">
-        <v>0.9763828903322522</v>
-      </c>
-      <c r="AC6">
-        <v>0.9894098996576202</v>
-      </c>
       <c r="AD6">
-        <v>0.9928145429718723</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1880,9 +1844,6 @@
         <v>1</v>
       </c>
       <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
         <v>1</v>
       </c>
     </row>
@@ -1901,66 +1862,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5687507249221986</v>
+        <v>0.5056965611403527</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1969,21 +1930,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +1953,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5754725356114144</v>
+      </c>
+      <c r="G3">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5189482025121527</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2010,21 +1971,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2033,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5937469585305719</v>
+      </c>
+      <c r="G4">
         <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5178569530461781</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -2051,36 +2012,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6012164217044564</v>
+        <v>0.5466489640350847</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2092,39 +2053,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5098716314488122</v>
+        <v>0.6042552139936058</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2133,16 +2094,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,66 +2121,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7706492876254465</v>
+        <v>0.7064612574946653</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -2228,21 +2189,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2257,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7394925734221207</v>
+        <v>0.737988947799199</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2269,21 +2230,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2298,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8028946941430707</v>
+        <v>0.8009559181349767</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2310,39 +2271,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.75760827073676</v>
+      </c>
+      <c r="G5">
         <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7464905388027725</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -2351,36 +2312,36 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7899565875032717</v>
+        <v>0.8507477224040149</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2392,16 +2353,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,63 +2380,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8454300587039357</v>
+        <v>0.8157445617605185</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -2487,21 +2448,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2510,16 +2471,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8123785990308876</v>
+        <v>0.8125904021302229</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2528,21 +2489,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2557,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8028946941430707</v>
+        <v>0.8009559181349767</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2569,39 +2530,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8028360734833491</v>
+        <v>0.8120408513246135</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -2610,27 +2571,27 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -2639,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8640170275016844</v>
+        <v>0.8507477224040149</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2651,16 +2612,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,54 +2639,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -2734,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9474018007277922</v>
+        <v>0.9802526272570077</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -2746,21 +2707,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2769,16 +2730,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9876440289114481</v>
+      </c>
+      <c r="G3">
         <v>26</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9139261572121128</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -2787,21 +2748,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2810,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9207274254129003</v>
+      </c>
+      <c r="G4">
         <v>26</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9084623007353076</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -2828,36 +2789,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.991378138099247</v>
+        <v>0.9579524955443881</v>
       </c>
       <c r="G5">
         <v>26</v>
@@ -2869,39 +2830,39 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9110547598587135</v>
+        <v>0.9031473062290051</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -2910,16 +2871,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
